--- a/master_amb_sessional_provider_mapping.xlsx
+++ b/master_amb_sessional_provider_mapping.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="72">
   <si>
     <t>Department</t>
   </si>
@@ -216,6 +216,33 @@
   </si>
   <si>
     <t>8005002</t>
+  </si>
+  <si>
+    <t>LASKEY, DANIEL HENDRIK</t>
+  </si>
+  <si>
+    <t>HOUSMAN, BRIAN NEUMANN</t>
+  </si>
+  <si>
+    <t>10 E 102 PULMONARY</t>
+  </si>
+  <si>
+    <t>SCHEININ, SCOTT ALAN</t>
+  </si>
+  <si>
+    <t>30-14 CRESCENT STREET HEM ONC</t>
+  </si>
+  <si>
+    <t>10 UNION SQ E RESP</t>
+  </si>
+  <si>
+    <t>MSUS</t>
+  </si>
+  <si>
+    <t>5 CUBA HILL SURGERY</t>
+  </si>
+  <si>
+    <t>Network</t>
   </si>
 </sst>
 </file>
@@ -564,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,6 +1337,182 @@
         <v>36</v>
       </c>
     </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1700206075</v>
+      </c>
+      <c r="F29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1649512955</v>
+      </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>8005003</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1700206075</v>
+      </c>
+      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32">
+        <v>8005003</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32">
+        <v>1619977238</v>
+      </c>
+      <c r="F32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33">
+        <v>8806002</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33">
+        <v>1396907515</v>
+      </c>
+      <c r="F33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34">
+        <v>8849025</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34">
+        <v>1649512955</v>
+      </c>
+      <c r="F34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35">
+        <v>8986015</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35">
+        <v>1730349085</v>
+      </c>
+      <c r="F35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/master_amb_sessional_provider_mapping.xlsx
+++ b/master_amb_sessional_provider_mapping.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="77">
   <si>
     <t>Department</t>
   </si>
@@ -242,7 +242,22 @@
     <t>5 CUBA HILL SURGERY</t>
   </si>
   <si>
-    <t>Network</t>
+    <t>NETWORK</t>
+  </si>
+  <si>
+    <t>787 11TH AVE MSW SPINE CENTER</t>
+  </si>
+  <si>
+    <t>MAHAJER, AMIR</t>
+  </si>
+  <si>
+    <t>KIM, JUN SUP</t>
+  </si>
+  <si>
+    <t>BAX, JOSEPH A</t>
+  </si>
+  <si>
+    <t>MSW</t>
   </si>
 </sst>
 </file>
@@ -591,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +620,7 @@
     <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1411,6 +1426,9 @@
       <c r="G31" t="s">
         <v>47</v>
       </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1434,6 +1452,9 @@
       <c r="G32" t="s">
         <v>47</v>
       </c>
+      <c r="H32" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1510,6 +1531,110 @@
         <v>71</v>
       </c>
       <c r="H35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="4">
+        <v>8792001</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>1538318209</v>
+      </c>
+      <c r="F36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="4">
+        <v>8792001</v>
+      </c>
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37">
+        <v>1770829541</v>
+      </c>
+      <c r="F37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="4">
+        <v>8792001</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38">
+        <v>1962829309</v>
+      </c>
+      <c r="F38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="4">
+        <v>8792001</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39">
+        <v>1750417283</v>
+      </c>
+      <c r="F39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s">
         <v>36</v>
       </c>
     </row>

--- a/master_amb_sessional_provider_mapping.xlsx
+++ b/master_amb_sessional_provider_mapping.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kweons01\Desktop\Strategic Initiatives - So Youn\Github\server-upload-updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E527C219-F2AC-4769-B37C-C78ED22E5CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="84">
   <si>
     <t>Department</t>
   </si>
@@ -258,12 +259,33 @@
   </si>
   <si>
     <t>MSW</t>
+  </si>
+  <si>
+    <t>17 E 102ND UROLOGY CLINIC</t>
+  </si>
+  <si>
+    <t>KUMAR, ANGELISH</t>
+  </si>
+  <si>
+    <t>Urology</t>
+  </si>
+  <si>
+    <t>DROLLER, MICHAEL J.</t>
+  </si>
+  <si>
+    <t>REDDY, AVINASH </t>
+  </si>
+  <si>
+    <t>GRAFSTEIN, NEIL H</t>
+  </si>
+  <si>
+    <t>17 E 102ND URO INCONTINENCE CLINIC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,16 +336,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -605,11 +625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +683,7 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>1508187741</v>
       </c>
       <c r="F2" t="s">
@@ -683,13 +703,13 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>1255594230</v>
       </c>
       <c r="F3" t="s">
@@ -709,13 +729,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>1477510196</v>
       </c>
       <c r="F4" t="s">
@@ -735,13 +755,13 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>1184619116</v>
       </c>
       <c r="F5" t="s">
@@ -761,13 +781,13 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>1700847803</v>
       </c>
       <c r="F6" t="s">
@@ -787,13 +807,13 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>1245557891</v>
       </c>
       <c r="F7" t="s">
@@ -813,13 +833,13 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>1386818474</v>
       </c>
       <c r="F8" t="s">
@@ -839,13 +859,13 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>538318209</v>
       </c>
       <c r="F9" t="s">
@@ -865,13 +885,13 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>1528142197</v>
       </c>
       <c r="F10" t="s">
@@ -891,13 +911,13 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>1902073794</v>
       </c>
       <c r="F11" t="s">
@@ -917,13 +937,13 @@
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>1063753044</v>
       </c>
       <c r="F12" t="s">
@@ -943,13 +963,13 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>1134223423</v>
       </c>
       <c r="F13" t="s">
@@ -969,13 +989,13 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>1528142197</v>
       </c>
       <c r="F14" t="s">
@@ -995,13 +1015,13 @@
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>1508187741</v>
       </c>
       <c r="F15" t="s">
@@ -1021,13 +1041,13 @@
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>1952661217</v>
       </c>
       <c r="F16" t="s">
@@ -1047,13 +1067,13 @@
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>1740269398</v>
       </c>
       <c r="F17" t="s">
@@ -1073,13 +1093,13 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>1912134271</v>
       </c>
       <c r="F18" t="s">
@@ -1099,13 +1119,13 @@
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>1063753044</v>
       </c>
       <c r="F19" t="s">
@@ -1125,13 +1145,13 @@
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>1295993517</v>
       </c>
       <c r="F20" t="s">
@@ -1151,13 +1171,13 @@
       <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>1538333893</v>
       </c>
       <c r="F21" t="s">
@@ -1174,16 +1194,16 @@
       <c r="A22" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>1306821244</v>
       </c>
       <c r="F22" t="s">
@@ -1200,16 +1220,16 @@
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>1730499898</v>
       </c>
       <c r="F23" t="s">
@@ -1226,16 +1246,16 @@
       <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D24" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="3">
         <v>1396907515</v>
       </c>
       <c r="F24" t="s">
@@ -1252,16 +1272,16 @@
       <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D25" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>1730349085</v>
       </c>
       <c r="F25" t="s">
@@ -1278,16 +1298,16 @@
       <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="3">
         <v>1275783565</v>
       </c>
       <c r="F26" t="s">
@@ -1304,16 +1324,16 @@
       <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D27" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="3">
         <v>1962720425</v>
       </c>
       <c r="F27" t="s">
@@ -1330,16 +1350,16 @@
       <c r="A28" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="3">
         <v>1881811198</v>
       </c>
       <c r="F28" t="s">
@@ -1356,16 +1376,16 @@
       <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>1700206075</v>
       </c>
       <c r="F29" t="s">
@@ -1382,16 +1402,16 @@
       <c r="A30" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>1649512955</v>
       </c>
       <c r="F30" t="s">
@@ -1414,10 +1434,10 @@
       <c r="C31">
         <v>8005003</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>1700206075</v>
       </c>
       <c r="F31" t="s">
@@ -1541,7 +1561,7 @@
       <c r="B36" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>8792001</v>
       </c>
       <c r="D36" t="s">
@@ -1567,7 +1587,7 @@
       <c r="B37" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>8792001</v>
       </c>
       <c r="D37" t="s">
@@ -1593,7 +1613,7 @@
       <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>8792001</v>
       </c>
       <c r="D38" t="s">
@@ -1619,7 +1639,7 @@
       <c r="B39" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>8792001</v>
       </c>
       <c r="D39" t="s">
@@ -1638,8 +1658,112 @@
         <v>36</v>
       </c>
     </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="3">
+        <v>8458019</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1831381185</v>
+      </c>
+      <c r="F40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="3">
+        <v>8458019</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1528061686</v>
+      </c>
+      <c r="F41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="3">
+        <v>8458019</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1447570114</v>
+      </c>
+      <c r="F42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="3">
+        <v>8530029</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1891800033</v>
+      </c>
+      <c r="F43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/master_amb_sessional_provider_mapping.xlsx
+++ b/master_amb_sessional_provider_mapping.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kweons01\Desktop\Strategic Initiatives - So Youn\Github\server-upload-updated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navlar01\Documents\server-upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E527C219-F2AC-4769-B37C-C78ED22E5CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
   <si>
     <t>Department</t>
   </si>
@@ -280,13 +279,37 @@
   </si>
   <si>
     <t>17 E 102ND URO INCONTINENCE CLINIC</t>
+  </si>
+  <si>
+    <t>440 W 114 UROLOGY CLINIC</t>
+  </si>
+  <si>
+    <t>PATEL, DHRUTI M</t>
+  </si>
+  <si>
+    <t>MSM</t>
+  </si>
+  <si>
+    <t>MOTOLA, JAY A</t>
+  </si>
+  <si>
+    <t>HOKE, GERALD P.</t>
+  </si>
+  <si>
+    <t>COLEBURN, NORMAN</t>
+  </si>
+  <si>
+    <t>TEWARI, ASHUTOSH</t>
+  </si>
+  <si>
+    <t>SCHLUSSEL, KACIE H.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +328,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -336,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -346,6 +376,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,26 +656,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -670,7 +701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -696,7 +727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -722,7 +753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -748,7 +779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -774,7 +805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -800,7 +831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -826,7 +857,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -852,7 +883,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -878,7 +909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -904,7 +935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -930,7 +961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -956,7 +987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -982,7 +1013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1008,7 +1039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1034,7 +1065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1060,7 +1091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1086,7 +1117,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1112,7 +1143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1138,7 +1169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1164,7 +1195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1190,7 +1221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1216,7 +1247,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1242,7 +1273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1268,7 +1299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1294,7 +1325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1320,7 +1351,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1346,7 +1377,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1372,7 +1403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1398,7 +1429,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1424,7 +1455,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1450,7 +1481,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1476,7 +1507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1502,7 +1533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1528,7 +1559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1554,7 +1585,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1580,7 +1611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1606,7 +1637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1632,7 +1663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -1658,7 +1689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -1684,7 +1715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -1710,7 +1741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -1736,7 +1767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -1762,8 +1793,163 @@
         <v>36</v>
       </c>
     </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="3">
+        <v>8808034</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1407172877</v>
+      </c>
+      <c r="F44" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="3">
+        <v>8808034</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1174509814</v>
+      </c>
+      <c r="F45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="3">
+        <v>8808034</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1407951593</v>
+      </c>
+      <c r="F46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="3">
+        <v>8808034</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1275621245</v>
+      </c>
+      <c r="F47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="3">
+        <v>8005002</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1790873065</v>
+      </c>
+      <c r="F48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="3">
+        <v>8005002</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1558792457</v>
+      </c>
+      <c r="F49" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/master_amb_sessional_provider_mapping.xlsx
+++ b/master_amb_sessional_provider_mapping.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navlar01\Documents\server-upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kweons01\Desktop\Strategic Initiatives - So Youn\Github\server-upload-updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F07DBD4C-FFF3-472D-8AB1-86961E79CBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,17 +18,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="111">
   <si>
     <t>Department</t>
   </si>
@@ -303,12 +315,69 @@
   </si>
   <si>
     <t>SCHLUSSEL, KACIE H.</t>
+  </si>
+  <si>
+    <t>1086 N BROADWAY CARDIOLOGY</t>
+  </si>
+  <si>
+    <t>SHARMA, RAMAN</t>
+  </si>
+  <si>
+    <t>MSH-MSDFP</t>
+  </si>
+  <si>
+    <t>Cardiovascular Institute/Cardiology</t>
+  </si>
+  <si>
+    <t>1977 FLATBUSH AVE CARDIOLOGY</t>
+  </si>
+  <si>
+    <t>KAPUR, VISHAL</t>
+  </si>
+  <si>
+    <t>MELARCODE KRISHNAMOORTHY, PARASURAM</t>
+  </si>
+  <si>
+    <t>MILLER, MARC A.</t>
+  </si>
+  <si>
+    <t>YOUSSEF, JAMES</t>
+  </si>
+  <si>
+    <t>MSQ REMOTE MONITORING</t>
+  </si>
+  <si>
+    <t>DANGAS, GEORGE</t>
+  </si>
+  <si>
+    <t>KUKAR, ATUL</t>
+  </si>
+  <si>
+    <t>30-14 CRESCENT STREET CARDIOLOGY</t>
+  </si>
+  <si>
+    <t>ATALLAH-LAJAM, FARAH E.</t>
+  </si>
+  <si>
+    <t>341 CENTRAL PARK AVE CARDIOLOGY</t>
+  </si>
+  <si>
+    <t>DELVALLE, MICHELLE</t>
+  </si>
+  <si>
+    <t>MEHTA, DAVENDRA</t>
+  </si>
+  <si>
+    <t>37-12 82ND ST CARDIOLOGY</t>
+  </si>
+  <si>
+    <t>KRISHNAN, PRAKASH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,17 +435,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,82 +726,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
-    <col min="6" max="6" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="3">
         <v>1508187741</v>
       </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -743,99 +813,99 @@
       <c r="E3" s="3">
         <v>1255594230</v>
       </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3">
         <v>1477510196</v>
       </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3">
         <v>1184619116</v>
       </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3">
         <v>1700847803</v>
       </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -847,333 +917,333 @@
       <c r="E7" s="3">
         <v>1245557891</v>
       </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3">
         <v>1386818474</v>
       </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3">
         <v>538318209</v>
       </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="3">
         <v>1528142197</v>
       </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="H10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3">
         <v>1902073794</v>
       </c>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="H11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="3">
         <v>1063753044</v>
       </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="H12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="3">
         <v>1134223423</v>
       </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="H13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="3">
         <v>1528142197</v>
       </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="H14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="3">
         <v>1508187741</v>
       </c>
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="H15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="3">
         <v>1952661217</v>
       </c>
-      <c r="F16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="H16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="3">
         <v>1740269398</v>
       </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="H17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="3">
         <v>1912134271</v>
       </c>
-      <c r="F18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="H18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="3">
         <v>1063753044</v>
       </c>
-      <c r="F19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="H19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1185,226 +1255,226 @@
       <c r="E20" s="3">
         <v>1295993517</v>
       </c>
-      <c r="F20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="H20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="4">
         <v>1538333893</v>
       </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="H21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="3">
         <v>1306821244</v>
       </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="H22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="3">
         <v>1730499898</v>
       </c>
-      <c r="F23" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="H23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="3">
         <v>1396907515</v>
       </c>
-      <c r="F24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="H24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="3">
         <v>1730349085</v>
       </c>
-      <c r="F25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="H25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="3">
         <v>1275783565</v>
       </c>
-      <c r="F26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="H26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E27" s="3">
         <v>1962720425</v>
       </c>
-      <c r="F27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="H27" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E28" s="3">
         <v>1881811198</v>
       </c>
-      <c r="F28" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="H28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1419,18 +1489,18 @@
       <c r="E29" s="3">
         <v>1700206075</v>
       </c>
-      <c r="F29" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="H29" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1445,24 +1515,24 @@
       <c r="E30" s="3">
         <v>1649512955</v>
       </c>
-      <c r="F30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="H30" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>8005003</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1471,226 +1541,226 @@
       <c r="E31" s="3">
         <v>1700206075</v>
       </c>
-      <c r="F31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="H31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>8005003</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>1619977238</v>
       </c>
-      <c r="F32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="H32" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>8806002</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>1396907515</v>
       </c>
-      <c r="F33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="H33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>8849025</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>1649512955</v>
       </c>
-      <c r="F34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="H34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>8986015</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>1730349085</v>
       </c>
-      <c r="F35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="H35" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="3">
         <v>8792001</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>1538318209</v>
       </c>
-      <c r="F36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="F36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="H36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="3">
         <v>8792001</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>1770829541</v>
       </c>
-      <c r="F37" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="H37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C38" s="3">
         <v>8792001</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>1962829309</v>
       </c>
-      <c r="F38" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="H38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C39" s="3">
         <v>8792001</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>1750417283</v>
       </c>
-      <c r="F39" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="H39" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1705,18 +1775,18 @@
       <c r="E40" s="3">
         <v>1831381185</v>
       </c>
-      <c r="F40" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="H40" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -1731,18 +1801,18 @@
       <c r="E41" s="3">
         <v>1528061686</v>
       </c>
-      <c r="F41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="H41" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -1757,18 +1827,18 @@
       <c r="E42" s="3">
         <v>1447570114</v>
       </c>
-      <c r="F42" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="F42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="H42" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1783,18 +1853,18 @@
       <c r="E43" s="3">
         <v>1891800033</v>
       </c>
-      <c r="F43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="F43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="H43" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -1809,18 +1879,18 @@
       <c r="E44" s="3">
         <v>1407172877</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="H44" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -1835,18 +1905,18 @@
       <c r="E45" s="3">
         <v>1174509814</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="H45" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -1861,18 +1931,18 @@
       <c r="E46" s="3">
         <v>1407951593</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="H46" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -1887,18 +1957,18 @@
       <c r="E47" s="3">
         <v>1275621245</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="H47" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -1913,18 +1983,18 @@
       <c r="E48" s="3">
         <v>1790873065</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="H48" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -1939,13 +2009,481 @@
       <c r="E49" s="3">
         <v>1558792457</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="1">
+        <v>8113002</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1134562358</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="1">
+        <v>8397001</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1730383308</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="1">
+        <v>8397001</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1023356805</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="1">
+        <v>8397001</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1326133737</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="1">
+        <v>8397001</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1417273152</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="1">
+        <v>8357027</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1124105002</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="1">
+        <v>8357027</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1730383308</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="1">
+        <v>8357027</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1225054984</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="1">
+        <v>8986001</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1356382246</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="1">
+        <v>8986001</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1124105002</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="1">
+        <v>8986001</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1225054984</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="1">
+        <v>8958001</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1114920766</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="1">
+        <v>8958001</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1326084971</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="1">
+        <v>8958001</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1134562358</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="1">
+        <v>8348001</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1134562358</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="1">
+        <v>8348001</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1356382246</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="1">
+        <v>8348001</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1730383308</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="1">
+        <v>8348001</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1972547974</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>36</v>
       </c>
     </row>
